--- a/jfshare_administration_proxy/excel/excel.xlsx
+++ b/jfshare_administration_proxy/excel/excel.xlsx
@@ -46,16 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">72070112 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71920112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卖家id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55780060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59540060</t>
   </si>
 </sst>
 </file>
@@ -198,7 +197,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -491,7 +490,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -504,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -524,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -539,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>

--- a/jfshare_administration_proxy/excel/excel.xlsx
+++ b/jfshare_administration_proxy/excel/excel.xlsx
@@ -54,7 +54,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>59540060</t>
+    <t>57340060</t>
   </si>
 </sst>
 </file>
@@ -197,7 +197,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
